--- a/Documents/SAG calibration.xlsx
+++ b/Documents/SAG calibration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parth\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\My Uni Work\3rd Pro\ENMT401\volcanic-ash-uav\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -114,7 +114,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -133,7 +133,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -147,7 +146,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -219,7 +218,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -233,7 +231,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -299,6 +297,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06AA-4B0E-8414-56969BCD9998}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -325,7 +328,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -339,17 +342,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Belt</a:t>
+                  <a:t>Belt rate (%)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> rate (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -363,7 +360,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -401,7 +398,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -448,7 +445,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -467,7 +464,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -481,7 +477,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -519,7 +515,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -570,7 +566,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1144,15 +1140,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1250,6 +1246,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1285,6 +1298,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1440,7 +1470,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
